--- a/Module 1 - Quiz/Module 1_Quiz Data_Pareto.xlsx
+++ b/Module 1 - Quiz/Module 1_Quiz Data_Pareto.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CertTFS\Online-Content\Courses\ENG\DAT222x - Essential Statistics for Data Analysis using Excel\Assessments\Module 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Documents\GitHub\stats-edx\Module 1 - Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5AF38-5DB4-4FBF-8A3F-21E008BF020E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11978"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$15:$C$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$15:$D$22</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="12">
   <si>
     <t>Complaint</t>
   </si>
@@ -52,12 +65,28 @@
   <si>
     <t>slow check out</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Complaint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +112,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,6 +140,1899 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A2C1B79A-8D92-4E65-95A2-14CB58A1E414}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{C3585A0D-FFC6-43F3-9ED9-A6EDA9C39958}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0632062F-976C-4695-9701-4E58501AF115}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5343525" y="676275"/>
+              <a:ext cx="5619750" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anh Nguyen" refreshedDate="43263.78712685185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="372" xr:uid="{EF326791-23B0-4B4A-9AA4-A5D8BE9AE919}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:A373" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Complaint" numFmtId="0">
+      <sharedItems count="8">
+        <s v="parking"/>
+        <s v="sales rude"/>
+        <s v="clothing faded"/>
+        <s v="can't find clothes"/>
+        <s v="poor lighting"/>
+        <s v="can't find right size"/>
+        <s v="slow check out"/>
+        <s v="clothing shrank"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="372">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D6738FB-F9D3-4949-B475-6D68F87912F5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C2:D11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Complaint" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,1879 +2331,2001 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.06640625" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>119</v>
+      </c>
+      <c r="F21" s="4">
+        <f>(252+37+26)/372</f>
+        <v>0.84677419354838712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4">
+        <f>(252+37)/372</f>
+        <v>0.7768817204301075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <f>(252)/372</f>
+        <v>0.67741935483870963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -2283,5 +4335,6 @@
     <sortCondition ref="B2:B373"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>